--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="484">
   <si>
     <t>TestCases</t>
   </si>
@@ -1135,6 +1135,366 @@
   </si>
   <si>
     <t>IDEP647155864718K2IQ</t>
+  </si>
+  <si>
+    <t>6077291824</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>AbdulNarula55872@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-26</t>
+  </si>
+  <si>
+    <t>558913126330638</t>
+  </si>
+  <si>
+    <t>9c80fd980b69321b</t>
+  </si>
+  <si>
+    <t>487262261468746</t>
+  </si>
+  <si>
+    <t>7595872486</t>
+  </si>
+  <si>
+    <t>BijoyBrar26456@example.net</t>
+  </si>
+  <si>
+    <t>1995-07-04</t>
+  </si>
+  <si>
+    <t>430066854170322</t>
+  </si>
+  <si>
+    <t>a56b0941e6329110</t>
+  </si>
+  <si>
+    <t>284736962585077</t>
+  </si>
+  <si>
+    <t>6980870082</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>AniruddhSoman44571@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-05</t>
+  </si>
+  <si>
+    <t>503258517333023</t>
+  </si>
+  <si>
+    <t>9669384598bb1018</t>
+  </si>
+  <si>
+    <t>619032030997502</t>
+  </si>
+  <si>
+    <t>IDEP461733382124ND9B</t>
+  </si>
+  <si>
+    <t>8476827800</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>BaalkrishanDass36723@example.net</t>
+  </si>
+  <si>
+    <t>1984-02-25</t>
+  </si>
+  <si>
+    <t>195016487308653</t>
+  </si>
+  <si>
+    <t>65c2d665359568d0</t>
+  </si>
+  <si>
+    <t>972774368411660</t>
+  </si>
+  <si>
+    <t>IDEP641738145529SMW2</t>
+  </si>
+  <si>
+    <t>6112169442</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>KabeerNagarajan90948@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-26</t>
+  </si>
+  <si>
+    <t>016199522758244</t>
+  </si>
+  <si>
+    <t>f2a504a95860958e</t>
+  </si>
+  <si>
+    <t>494435828490004</t>
+  </si>
+  <si>
+    <t>IDEP7146435244851H4L</t>
+  </si>
+  <si>
+    <t>7191457285</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>MarloMeda31564@example.net</t>
+  </si>
+  <si>
+    <t>1979-03-27</t>
+  </si>
+  <si>
+    <t>743788471687055</t>
+  </si>
+  <si>
+    <t>88afe495b9e21eef</t>
+  </si>
+  <si>
+    <t>320677693268599</t>
+  </si>
+  <si>
+    <t>IDEP174643618178Z6PE</t>
+  </si>
+  <si>
+    <t>7056751858</t>
+  </si>
+  <si>
+    <t>Falguni</t>
+  </si>
+  <si>
+    <t>KalpitSaini26421@example.net</t>
+  </si>
+  <si>
+    <t>1970-11-05</t>
+  </si>
+  <si>
+    <t>932926670731362</t>
+  </si>
+  <si>
+    <t>75c6e781a43f28f0</t>
+  </si>
+  <si>
+    <t>878070006862405</t>
+  </si>
+  <si>
+    <t>IDEP6174443598282E7T</t>
+  </si>
+  <si>
+    <t>7317176694</t>
+  </si>
+  <si>
+    <t>Mridula</t>
+  </si>
+  <si>
+    <t>ArpitPandya31050@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-04</t>
+  </si>
+  <si>
+    <t>729254873139904</t>
+  </si>
+  <si>
+    <t>227ae205815afbca</t>
+  </si>
+  <si>
+    <t>704453895826071</t>
+  </si>
+  <si>
+    <t>IDEP641745114588A26U</t>
+  </si>
+  <si>
+    <t>7035457175</t>
+  </si>
+  <si>
+    <t>Babita</t>
+  </si>
+  <si>
+    <t>UmeshGarg81210@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-23</t>
+  </si>
+  <si>
+    <t>701739654568836</t>
+  </si>
+  <si>
+    <t>2fe53641a27480e9</t>
+  </si>
+  <si>
+    <t>719110393096192</t>
+  </si>
+  <si>
+    <t>7125977593</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>QabeelDutt85831@example.net</t>
+  </si>
+  <si>
+    <t>1983-06-24</t>
+  </si>
+  <si>
+    <t>563960933309951</t>
+  </si>
+  <si>
+    <t>1d6143fd2b273dba</t>
+  </si>
+  <si>
+    <t>823646456631691</t>
+  </si>
+  <si>
+    <t>6250339413</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>YadunandanKala51161@example.net</t>
+  </si>
+  <si>
+    <t>1972-02-08</t>
+  </si>
+  <si>
+    <t>425820007155300</t>
+  </si>
+  <si>
+    <t>726e4242c83a0d7e</t>
+  </si>
+  <si>
+    <t>305234568790122</t>
+  </si>
+  <si>
+    <t>7693908780</t>
+  </si>
+  <si>
+    <t>Nupur</t>
+  </si>
+  <si>
+    <t>QadimSundaram22415@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-21</t>
+  </si>
+  <si>
+    <t>789514369146599</t>
+  </si>
+  <si>
+    <t>2562e17939959b7f</t>
+  </si>
+  <si>
+    <t>787822217996129</t>
+  </si>
+  <si>
+    <t>7746323208</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>TabeedKrishnamurthy86287@example.net</t>
+  </si>
+  <si>
+    <t>1982-02-06</t>
+  </si>
+  <si>
+    <t>954451881518881</t>
+  </si>
+  <si>
+    <t>b098403e42109c5f</t>
+  </si>
+  <si>
+    <t>815656396525945</t>
+  </si>
+  <si>
+    <t>9777147186</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>KamleshArya37924@example.net</t>
+  </si>
+  <si>
+    <t>1990-01-06</t>
+  </si>
+  <si>
+    <t>367364012313000</t>
+  </si>
+  <si>
+    <t>30a7371c90913dc5</t>
+  </si>
+  <si>
+    <t>561765586764663</t>
+  </si>
+  <si>
+    <t>IDEP157663165871APRD</t>
+  </si>
+  <si>
+    <t>7456269911</t>
+  </si>
+  <si>
+    <t>Avantika</t>
+  </si>
+  <si>
+    <t>GauravD’Alia96847@example.net</t>
+  </si>
+  <si>
+    <t>1974-03-12</t>
+  </si>
+  <si>
+    <t>194985943019883</t>
+  </si>
+  <si>
+    <t>5d002819f269ef8d</t>
+  </si>
+  <si>
+    <t>205531483534159</t>
+  </si>
+  <si>
+    <t>IDEP756163639736EFD4</t>
+  </si>
+  <si>
+    <t>9323018263</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>LakshmiRama34845@example.net</t>
+  </si>
+  <si>
+    <t>1984-12-18</t>
+  </si>
+  <si>
+    <t>647583115241790</t>
+  </si>
+  <si>
+    <t>a7c5205b261ead14</t>
+  </si>
+  <si>
+    <t>965555475778441</t>
+  </si>
+  <si>
+    <t>IDEP617564531336954I</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1750,7 +2110,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2199,16 +2559,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2427,13 +2787,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2980,10 +3340,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -2995,7 +3355,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3004,10 +3364,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="M2" t="n">
-        <v>4221630.0</v>
+        <v>4224456.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3163,7 +3523,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3180,7 +3540,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3197,7 +3557,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3214,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3231,7 +3591,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3317,7 +3677,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3561,7 +3921,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -3776,7 +4136,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -3859,7 +4219,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4157,7 +4517,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4177,7 +4537,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4197,7 +4557,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4217,7 +4577,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4237,7 +4597,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4257,7 +4617,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4277,7 +4637,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="492">
   <si>
     <t>TestCases</t>
   </si>
@@ -1495,6 +1495,30 @@
   </si>
   <si>
     <t>IDEP617564531336954I</t>
+  </si>
+  <si>
+    <t>6965142587</t>
+  </si>
+  <si>
+    <t>Jayshree</t>
+  </si>
+  <si>
+    <t>HassanBhatia94428@example.net</t>
+  </si>
+  <si>
+    <t>1982-01-24</t>
+  </si>
+  <si>
+    <t>141411223352989</t>
+  </si>
+  <si>
+    <t>9852b5e6669fa5e0</t>
+  </si>
+  <si>
+    <t>701165036161555</t>
+  </si>
+  <si>
+    <t>IDEP15677811248623Q7</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +2014,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2110,7 +2134,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2559,16 +2583,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2787,13 +2811,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3340,10 +3364,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3355,7 +3379,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3364,10 +3388,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M2" t="n">
-        <v>4224456.0</v>
+        <v>4224668.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3523,7 +3547,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3540,7 +3564,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3557,7 +3581,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3574,7 +3598,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3591,7 +3615,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3677,7 +3701,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3921,7 +3945,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4136,7 +4160,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4219,7 +4243,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4517,7 +4541,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4537,7 +4561,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4557,7 +4581,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4577,7 +4601,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4597,7 +4621,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4617,7 +4641,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4637,7 +4661,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="499">
   <si>
     <t>TestCases</t>
   </si>
@@ -1519,6 +1519,27 @@
   </si>
   <si>
     <t>IDEP15677811248623Q7</t>
+  </si>
+  <si>
+    <t>7981759518</t>
+  </si>
+  <si>
+    <t>MukulTak12118@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-24</t>
+  </si>
+  <si>
+    <t>083578768746765</t>
+  </si>
+  <si>
+    <t>eadd41e2ad12e45c</t>
+  </si>
+  <si>
+    <t>951849130637449</t>
+  </si>
+  <si>
+    <t>IDEP7561983223388LW2</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2134,7 +2155,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2583,16 +2604,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2811,13 +2832,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3364,10 +3385,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3379,7 +3400,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3388,10 +3409,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M2" t="n">
-        <v>4224668.0</v>
+        <v>4224878.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3547,7 +3568,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3564,7 +3585,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3581,7 +3602,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3598,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3615,7 +3636,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3701,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3945,7 +3966,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4160,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4243,7 +4264,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4541,7 +4562,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4561,7 +4582,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4581,7 +4602,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4601,7 +4622,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4621,7 +4642,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4641,7 +4662,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4661,7 +4682,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="520">
   <si>
     <t>TestCases</t>
   </si>
@@ -1540,6 +1540,69 @@
   </si>
   <si>
     <t>IDEP7561983223388LW2</t>
+  </si>
+  <si>
+    <t>9050807205</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>RameshMahal81437@example.net</t>
+  </si>
+  <si>
+    <t>1988-07-02</t>
+  </si>
+  <si>
+    <t>767643341292068</t>
+  </si>
+  <si>
+    <t>d6a08b1e6165651c</t>
+  </si>
+  <si>
+    <t>792650658618198</t>
+  </si>
+  <si>
+    <t>8622651824</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>PrasoonBorra70541@example.net</t>
+  </si>
+  <si>
+    <t>1970-02-26</t>
+  </si>
+  <si>
+    <t>681864629295622</t>
+  </si>
+  <si>
+    <t>c7ac0917761a1a95</t>
+  </si>
+  <si>
+    <t>441697671942233</t>
+  </si>
+  <si>
+    <t>7048545774</t>
+  </si>
+  <si>
+    <t>YashRaghavan65329@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-21</t>
+  </si>
+  <si>
+    <t>801455277777501</t>
+  </si>
+  <si>
+    <t>603332f1ab4d3dd3</t>
+  </si>
+  <si>
+    <t>155800652703451</t>
+  </si>
+  <si>
+    <t>IDEP65174344839382NQ</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2155,7 +2218,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2604,16 +2667,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2832,13 +2895,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F2" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3385,10 +3448,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3400,7 +3463,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3409,10 +3472,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="M2" t="n">
-        <v>4224878.0</v>
+        <v>4225060.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3568,7 +3631,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3585,7 +3648,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3602,7 +3665,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3619,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3636,7 +3699,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3722,7 +3785,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -3966,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4181,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4264,7 +4327,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4562,7 +4625,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4582,7 +4645,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4602,7 +4665,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4622,7 +4685,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4642,7 +4705,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4662,7 +4725,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4682,7 +4745,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="543">
   <si>
     <t>TestCases</t>
   </si>
@@ -1603,6 +1603,75 @@
   </si>
   <si>
     <t>IDEP65174344839382NQ</t>
+  </si>
+  <si>
+    <t>7240392325</t>
+  </si>
+  <si>
+    <t>PranayNazareth79168@example.net</t>
+  </si>
+  <si>
+    <t>1970-11-23</t>
+  </si>
+  <si>
+    <t>469444700502994</t>
+  </si>
+  <si>
+    <t>9bb1022161a9da68</t>
+  </si>
+  <si>
+    <t>181657508725858</t>
+  </si>
+  <si>
+    <t>IDEP576146665529YHTI</t>
+  </si>
+  <si>
+    <t>7397856014</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>JamshedBhatti34241@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-03</t>
+  </si>
+  <si>
+    <t>610746944950740</t>
+  </si>
+  <si>
+    <t>3cf59c452f22ca08</t>
+  </si>
+  <si>
+    <t>288649152157746</t>
+  </si>
+  <si>
+    <t>IDEP751647728588PXEV</t>
+  </si>
+  <si>
+    <t>8289052588</t>
+  </si>
+  <si>
+    <t>Juhi</t>
+  </si>
+  <si>
+    <t>BharatAgate19039@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-12</t>
+  </si>
+  <si>
+    <t>024775908637217</t>
+  </si>
+  <si>
+    <t>5f5f0013b82cfc06</t>
+  </si>
+  <si>
+    <t>747095433391545</t>
+  </si>
+  <si>
+    <t>IDEP157648596629DB2R</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2218,7 +2287,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2667,16 +2736,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2895,13 +2964,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F2" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3448,10 +3517,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3463,7 +3532,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3472,10 +3541,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="M2" t="n">
-        <v>4225060.0</v>
+        <v>4225185.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3631,7 +3700,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3648,7 +3717,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3665,7 +3734,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3682,7 +3751,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3699,7 +3768,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3785,7 +3854,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4029,7 +4098,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4244,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4327,7 +4396,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4625,7 +4694,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4645,7 +4714,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4665,7 +4734,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4685,7 +4754,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4705,7 +4774,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4725,7 +4794,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4745,7 +4814,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="582">
   <si>
     <t>TestCases</t>
   </si>
@@ -1672,6 +1672,123 @@
   </si>
   <si>
     <t>IDEP157648596629DB2R</t>
+  </si>
+  <si>
+    <t>7367765597</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>KrishnaKoshy52296@example.net</t>
+  </si>
+  <si>
+    <t>1992-03-08</t>
+  </si>
+  <si>
+    <t>387122535315654</t>
+  </si>
+  <si>
+    <t>c7c3564aafa05673</t>
+  </si>
+  <si>
+    <t>315792850646532</t>
+  </si>
+  <si>
+    <t>IDEP1756686836822RWL</t>
+  </si>
+  <si>
+    <t>6496741183</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>NazirHanda66805@example.net</t>
+  </si>
+  <si>
+    <t>1975-06-22</t>
+  </si>
+  <si>
+    <t>079714406667479</t>
+  </si>
+  <si>
+    <t>68852a449e6b7218</t>
+  </si>
+  <si>
+    <t>737864120043855</t>
+  </si>
+  <si>
+    <t>IDEP156762858366ZH8G</t>
+  </si>
+  <si>
+    <t>7339710350</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>HemendraDada70183@example.net</t>
+  </si>
+  <si>
+    <t>1972-02-15</t>
+  </si>
+  <si>
+    <t>351508696984878</t>
+  </si>
+  <si>
+    <t>b8e90fefd4532b9b</t>
+  </si>
+  <si>
+    <t>941770216371146</t>
+  </si>
+  <si>
+    <t>IDEP6571628853722WQ1</t>
+  </si>
+  <si>
+    <t>9198883509</t>
+  </si>
+  <si>
+    <t>AnimeshHarjo24228@example.net</t>
+  </si>
+  <si>
+    <t>1991-07-11</t>
+  </si>
+  <si>
+    <t>315981492485637</t>
+  </si>
+  <si>
+    <t>09f37f9044ba7193</t>
+  </si>
+  <si>
+    <t>671114770532973</t>
+  </si>
+  <si>
+    <t>IDEP561763344675ZF9U</t>
+  </si>
+  <si>
+    <t>7696756690</t>
+  </si>
+  <si>
+    <t>Tejaswani</t>
+  </si>
+  <si>
+    <t>SamirWagle90785@example.net</t>
+  </si>
+  <si>
+    <t>1981-10-23</t>
+  </si>
+  <si>
+    <t>511753793500238</t>
+  </si>
+  <si>
+    <t>03caf158b6d9ddae</t>
+  </si>
+  <si>
+    <t>957620464070943</t>
+  </si>
+  <si>
+    <t>IDEP517664496638Z1HU</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2287,7 +2404,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2736,16 +2853,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2964,13 +3081,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3517,10 +3634,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="E2" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3532,7 +3649,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3541,10 +3658,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="M2" t="n">
-        <v>4225185.0</v>
+        <v>4225423.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3700,7 +3817,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3717,7 +3834,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3734,7 +3851,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3751,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3768,7 +3885,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3854,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4098,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4313,7 +4430,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4396,7 +4513,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4694,7 +4811,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4714,7 +4831,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4734,7 +4851,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4754,7 +4871,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4774,7 +4891,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4794,7 +4911,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4814,7 +4931,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="697">
   <si>
     <t>TestCases</t>
   </si>
@@ -1789,6 +1789,351 @@
   </si>
   <si>
     <t>IDEP517664496638Z1HU</t>
+  </si>
+  <si>
+    <t>9703071291</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>AtulBava26171@example.net</t>
+  </si>
+  <si>
+    <t>1988-02-07</t>
+  </si>
+  <si>
+    <t>754295154124428</t>
+  </si>
+  <si>
+    <t>659e80845314aea4</t>
+  </si>
+  <si>
+    <t>407409775608989</t>
+  </si>
+  <si>
+    <t>9844979651</t>
+  </si>
+  <si>
+    <t>Padmini</t>
+  </si>
+  <si>
+    <t>RajKuruvilla69042@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-13</t>
+  </si>
+  <si>
+    <t>530071603662149</t>
+  </si>
+  <si>
+    <t>fd5e7c494268a56f</t>
+  </si>
+  <si>
+    <t>358445223885455</t>
+  </si>
+  <si>
+    <t>7064082497</t>
+  </si>
+  <si>
+    <t>ManishUppal58986@example.net</t>
+  </si>
+  <si>
+    <t>1979-10-25</t>
+  </si>
+  <si>
+    <t>780398825723665</t>
+  </si>
+  <si>
+    <t>cf57c63ce60d869b</t>
+  </si>
+  <si>
+    <t>781757909672057</t>
+  </si>
+  <si>
+    <t>9471839939</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>VenkatRadhakrishnan40547@example.net</t>
+  </si>
+  <si>
+    <t>1979-05-12</t>
+  </si>
+  <si>
+    <t>614157302044074</t>
+  </si>
+  <si>
+    <t>de9b4f8fff016c5f</t>
+  </si>
+  <si>
+    <t>087018867316000</t>
+  </si>
+  <si>
+    <t>6332322835</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>MohanlalDasgupta46581@example.net</t>
+  </si>
+  <si>
+    <t>1989-09-28</t>
+  </si>
+  <si>
+    <t>365408045333477</t>
+  </si>
+  <si>
+    <t>f8660c172bc4863d</t>
+  </si>
+  <si>
+    <t>007421983651424</t>
+  </si>
+  <si>
+    <t>7691356933</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>VenkatKhosla82546@example.net</t>
+  </si>
+  <si>
+    <t>1970-05-25</t>
+  </si>
+  <si>
+    <t>357146789906948</t>
+  </si>
+  <si>
+    <t>71703b73a1e4a98d</t>
+  </si>
+  <si>
+    <t>122950495855594</t>
+  </si>
+  <si>
+    <t>9418130896</t>
+  </si>
+  <si>
+    <t>RamGopalBalan44839@example.net</t>
+  </si>
+  <si>
+    <t>1991-03-17</t>
+  </si>
+  <si>
+    <t>453792035800766</t>
+  </si>
+  <si>
+    <t>7794b3ac02bceb5b</t>
+  </si>
+  <si>
+    <t>696442382586827</t>
+  </si>
+  <si>
+    <t>IDEP5176588982528MQT</t>
+  </si>
+  <si>
+    <t>8436552322</t>
+  </si>
+  <si>
+    <t>ZeeshanSharaf81908@example.net</t>
+  </si>
+  <si>
+    <t>1976-09-09</t>
+  </si>
+  <si>
+    <t>905208519799675</t>
+  </si>
+  <si>
+    <t>ce9e513c44096f7e</t>
+  </si>
+  <si>
+    <t>466441927474182</t>
+  </si>
+  <si>
+    <t>IDEP567151438849G6O4</t>
+  </si>
+  <si>
+    <t>9925838072</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>NarayanPatel70122@example.net</t>
+  </si>
+  <si>
+    <t>1976-04-19</t>
+  </si>
+  <si>
+    <t>707898956428083</t>
+  </si>
+  <si>
+    <t>0b3afccdeba5d010</t>
+  </si>
+  <si>
+    <t>951583143261992</t>
+  </si>
+  <si>
+    <t>IDEP756116742745T7VK</t>
+  </si>
+  <si>
+    <t>7239584975</t>
+  </si>
+  <si>
+    <t>AkhilChaudhary69888@example.net</t>
+  </si>
+  <si>
+    <t>1993-06-07</t>
+  </si>
+  <si>
+    <t>126382271575988</t>
+  </si>
+  <si>
+    <t>49559ebf3e24c35c</t>
+  </si>
+  <si>
+    <t>404716384302611</t>
+  </si>
+  <si>
+    <t>IDEP576118383175YCDS</t>
+  </si>
+  <si>
+    <t>6467640288</t>
+  </si>
+  <si>
+    <t>MarloDua22743@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-18</t>
+  </si>
+  <si>
+    <t>179177982236227</t>
+  </si>
+  <si>
+    <t>6d099dd2548e6d05</t>
+  </si>
+  <si>
+    <t>638666739185658</t>
+  </si>
+  <si>
+    <t>IDEP7165192478761T7D</t>
+  </si>
+  <si>
+    <t>7291623420</t>
+  </si>
+  <si>
+    <t>Navami</t>
+  </si>
+  <si>
+    <t>SamirMukherjee31012@example.net</t>
+  </si>
+  <si>
+    <t>1995-01-16</t>
+  </si>
+  <si>
+    <t>757492198626982</t>
+  </si>
+  <si>
+    <t>8f699cf64e180abc</t>
+  </si>
+  <si>
+    <t>785675661037721</t>
+  </si>
+  <si>
+    <t>IDEP571623245613XMPY</t>
+  </si>
+  <si>
+    <t>9791075278</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>ShashankBabu34097@example.net</t>
+  </si>
+  <si>
+    <t>1978-07-18</t>
+  </si>
+  <si>
+    <t>679814161964063</t>
+  </si>
+  <si>
+    <t>c7ff01759ee35275</t>
+  </si>
+  <si>
+    <t>723341046396846</t>
+  </si>
+  <si>
+    <t>IDEP576124859234LZH3</t>
+  </si>
+  <si>
+    <t>7366175131</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>IqbalShukla31360@example.net</t>
+  </si>
+  <si>
+    <t>1989-12-20</t>
+  </si>
+  <si>
+    <t>987611812580331</t>
+  </si>
+  <si>
+    <t>fdbfea9bcad61d5f</t>
+  </si>
+  <si>
+    <t>966491957128153</t>
+  </si>
+  <si>
+    <t>IDEP715629998465FMPU</t>
+  </si>
+  <si>
+    <t>6969363344</t>
+  </si>
+  <si>
+    <t>AnilAggarwal14352@example.net</t>
+  </si>
+  <si>
+    <t>1989-05-20</t>
+  </si>
+  <si>
+    <t>539682712016760</t>
+  </si>
+  <si>
+    <t>b51a4e5dbd3c14f2</t>
+  </si>
+  <si>
+    <t>421123841107197</t>
+  </si>
+  <si>
+    <t>IDEP715631984652E2HL</t>
+  </si>
+  <si>
+    <t>8683915450</t>
+  </si>
+  <si>
+    <t>UjwalZacharia32660@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-24</t>
+  </si>
+  <si>
+    <t>917498416408357</t>
+  </si>
+  <si>
+    <t>f945ebe12d437eb6</t>
+  </si>
+  <si>
+    <t>933096877699637</t>
+  </si>
+  <si>
+    <t>IDEP657134348221U4EB</t>
   </si>
 </sst>
 </file>
@@ -2284,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2404,7 +2749,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -2853,16 +3198,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>694</v>
       </c>
       <c r="C2" t="s">
-        <v>580</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3081,13 +3426,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>577</v>
+        <v>692</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3634,10 +3979,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="E2" t="s">
-        <v>576</v>
+        <v>691</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3649,7 +3994,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3658,10 +4003,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="M2" t="n">
-        <v>4225423.0</v>
+        <v>4233511.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3817,7 +4162,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3834,7 +4179,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3851,7 +4196,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3868,7 +4213,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3885,7 +4230,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>690</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3971,7 +4316,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4215,7 +4560,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>578</v>
+        <v>693</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4430,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>248</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4513,7 +4858,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -4811,7 +5156,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4831,7 +5176,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4851,7 +5196,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -4871,7 +5216,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4891,7 +5236,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4911,7 +5256,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4931,7 +5276,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>696</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_RingPolicy_L2_stage.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="788">
   <si>
     <t>TestCases</t>
   </si>
@@ -2134,6 +2134,279 @@
   </si>
   <si>
     <t>IDEP657134348221U4EB</t>
+  </si>
+  <si>
+    <t>8109828454</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>NareshDubey48257@example.net</t>
+  </si>
+  <si>
+    <t>1986-05-04</t>
+  </si>
+  <si>
+    <t>535643557693158</t>
+  </si>
+  <si>
+    <t>87f4eb6d33971947</t>
+  </si>
+  <si>
+    <t>173933217858227</t>
+  </si>
+  <si>
+    <t>7699256582</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>ShashankSawhney72463@example.net</t>
+  </si>
+  <si>
+    <t>1978-03-08</t>
+  </si>
+  <si>
+    <t>256379025060418</t>
+  </si>
+  <si>
+    <t>0e7293ac855f23f7</t>
+  </si>
+  <si>
+    <t>376056769084094</t>
+  </si>
+  <si>
+    <t>9030226777</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>AjayKhanna68810@example.net</t>
+  </si>
+  <si>
+    <t>1984-08-11</t>
+  </si>
+  <si>
+    <t>377278285106339</t>
+  </si>
+  <si>
+    <t>b2497a714f9c4fec</t>
+  </si>
+  <si>
+    <t>544723603150525</t>
+  </si>
+  <si>
+    <t>IDEP7156842421299F56</t>
+  </si>
+  <si>
+    <t>6247766835</t>
+  </si>
+  <si>
+    <t>SatishwarBains59957@example.net</t>
+  </si>
+  <si>
+    <t>1971-08-09</t>
+  </si>
+  <si>
+    <t>355801215004427</t>
+  </si>
+  <si>
+    <t>18eb631955f4584c</t>
+  </si>
+  <si>
+    <t>192554264424312</t>
+  </si>
+  <si>
+    <t>IDEP7165896511628KY1</t>
+  </si>
+  <si>
+    <t>6336026990</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>MukulKala22101@example.net</t>
+  </si>
+  <si>
+    <t>1989-05-17</t>
+  </si>
+  <si>
+    <t>933521154634213</t>
+  </si>
+  <si>
+    <t>0338c4d61dfe41bc</t>
+  </si>
+  <si>
+    <t>793910839162527</t>
+  </si>
+  <si>
+    <t>IDEP617516788922FC4V</t>
+  </si>
+  <si>
+    <t>8899220525</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>EhsaanWalia89070@example.net</t>
+  </si>
+  <si>
+    <t>1979-05-27</t>
+  </si>
+  <si>
+    <t>780878007657104</t>
+  </si>
+  <si>
+    <t>5392053568ab8206</t>
+  </si>
+  <si>
+    <t>562419982511331</t>
+  </si>
+  <si>
+    <t>IDEP156716982498U1PR</t>
+  </si>
+  <si>
+    <t>7671493280</t>
+  </si>
+  <si>
+    <t>BijoyKara87699@example.net</t>
+  </si>
+  <si>
+    <t>1990-11-19</t>
+  </si>
+  <si>
+    <t>359134398516314</t>
+  </si>
+  <si>
+    <t>b8551d970db2cdc9</t>
+  </si>
+  <si>
+    <t>123450165443374</t>
+  </si>
+  <si>
+    <t>IDEP516717192718NX1W</t>
+  </si>
+  <si>
+    <t>7446360717</t>
+  </si>
+  <si>
+    <t>AtulJhaveri74107@example.net</t>
+  </si>
+  <si>
+    <t>1983-10-08</t>
+  </si>
+  <si>
+    <t>621445809166552</t>
+  </si>
+  <si>
+    <t>bc70909939951454</t>
+  </si>
+  <si>
+    <t>471012814745373</t>
+  </si>
+  <si>
+    <t>IDEP567118145486O2CE</t>
+  </si>
+  <si>
+    <t>8704655699</t>
+  </si>
+  <si>
+    <t>Nishi</t>
+  </si>
+  <si>
+    <t>HimanshuHans86665@example.net</t>
+  </si>
+  <si>
+    <t>1990-09-30</t>
+  </si>
+  <si>
+    <t>681342080490271</t>
+  </si>
+  <si>
+    <t>73bc6f7e378d3552</t>
+  </si>
+  <si>
+    <t>376318831846581</t>
+  </si>
+  <si>
+    <t>IDEP6715192414475EF2</t>
+  </si>
+  <si>
+    <t>9705794450</t>
+  </si>
+  <si>
+    <t>Jyoti</t>
+  </si>
+  <si>
+    <t>BaldevMehra30866@example.net</t>
+  </si>
+  <si>
+    <t>1972-03-29</t>
+  </si>
+  <si>
+    <t>957852883940204</t>
+  </si>
+  <si>
+    <t>994116100378d554</t>
+  </si>
+  <si>
+    <t>893294628809898</t>
+  </si>
+  <si>
+    <t>IDEP751628784789SWL8</t>
+  </si>
+  <si>
+    <t>6031476007</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>PirzadaBhargava79943@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-08</t>
+  </si>
+  <si>
+    <t>569579848790123</t>
+  </si>
+  <si>
+    <t>99f68008ed5c9b0f</t>
+  </si>
+  <si>
+    <t>195694744833364</t>
+  </si>
+  <si>
+    <t>IDEP517621888125Y7HP</t>
+  </si>
+  <si>
+    <t>6964219277</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>YashChad30388@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-09</t>
+  </si>
+  <si>
+    <t>681536861093523</t>
+  </si>
+  <si>
+    <t>f808276a52102c1f</t>
+  </si>
+  <si>
+    <t>644229163343095</t>
+  </si>
+  <si>
+    <t>IDEP765122818772KI56</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2749,7 +3022,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C2" t="s">
         <v>240</v>
@@ -3198,16 +3471,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3426,13 +3699,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>781</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="F2" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3979,10 +4252,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="E2" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3994,7 +4267,7 @@
         <v>66</v>
       </c>
       <c r="I2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4003,10 +4276,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="M2" t="n">
-        <v>4233511.0</v>
+        <v>4234181.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4162,7 +4435,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4179,7 +4452,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4196,7 +4469,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4213,7 +4486,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4230,7 +4503,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4316,7 +4589,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4560,7 +4833,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>67</v>
@@ -4775,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>248</v>
+        <v>781</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>104</v>
@@ -4858,7 +5131,7 @@
         <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>110</v>
@@ -5156,7 +5429,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5176,7 +5449,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5196,7 +5469,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C4">
         <v>590</v>
@@ -5216,7 +5489,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5236,7 +5509,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5256,7 +5529,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5276,7 +5549,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>696</v>
+        <v>787</v>
       </c>
       <c r="C8">
         <v>725</v>
